--- a/Template/Export/Sari_R2_7.xlsx
+++ b/Template/Export/Sari_R2_7.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Periodicidad por semana epidemiologica</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>No. Fallecidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año epidemiológico: </t>
   </si>
 </sst>
 </file>
@@ -139,25 +142,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -184,19 +174,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -253,21 +230,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,33 +271,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,13 +311,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +403,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>No. Fallecidos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -677,11 +656,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-433826272"/>
-        <c:axId val="-433825728"/>
+        <c:axId val="-1819734224"/>
+        <c:axId val="-1819739120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-433826272"/>
+        <c:axId val="-1819734224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-433825728"/>
+        <c:crossAx val="-1819739120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-433825728"/>
+        <c:axId val="-1819739120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-433826272"/>
+        <c:crossAx val="-1819734224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1066,1127 +1045,1126 @@
   <dimension ref="B1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="13"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:15" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:15" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="15">
-        <v>2017</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>4</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>3</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>4</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>4</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>5</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>4</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>6</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>6</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>6</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>6</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <v>9</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>6</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>10</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>6</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>11</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <v>2</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>12</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="17">
         <v>2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>13</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="17">
         <v>2</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <v>14</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <v>2</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>15</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="17">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="19">
+      <c r="B22" s="16">
         <v>16</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>3</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="19">
+      <c r="B23" s="16">
         <v>17</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="17">
         <v>3</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="19">
+      <c r="B24" s="16">
         <v>18</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="17">
         <v>3</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="19">
+      <c r="B25" s="16">
         <v>19</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="17">
         <v>3</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
+      <c r="B26" s="16">
         <v>20</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="17">
         <v>3</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="19">
+      <c r="B27" s="16">
         <v>21</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="19">
+      <c r="B28" s="16">
         <v>22</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="19">
+      <c r="B29" s="16">
         <v>23</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="19">
+      <c r="B30" s="16">
         <v>24</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="19">
+      <c r="B31" s="16">
         <v>25</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="19">
+      <c r="B32" s="16">
         <v>26</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="19">
+      <c r="B33" s="16">
         <v>27</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="19">
+      <c r="B34" s="16">
         <v>28</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="19">
+      <c r="B35" s="16">
         <v>29</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="19">
+      <c r="B36" s="16">
         <v>30</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="19">
+      <c r="B37" s="16">
         <v>31</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="19">
+      <c r="B38" s="16">
         <v>32</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="19">
+      <c r="B39" s="16">
         <v>33</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="19">
+      <c r="B40" s="16">
         <v>34</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="19">
+      <c r="B41" s="16">
         <v>35</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="19">
+      <c r="B42" s="16">
         <v>36</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="19">
+      <c r="B43" s="16">
         <v>37</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="19">
+      <c r="B44" s="16">
         <v>38</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="19">
+      <c r="B45" s="16">
         <v>39</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="19">
+      <c r="B46" s="16">
         <v>40</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
+      <c r="B47" s="16">
         <v>41</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="19">
+      <c r="B48" s="16">
         <v>42</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="19">
+      <c r="B49" s="16">
         <v>43</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="19">
+      <c r="B50" s="16">
         <v>44</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="19">
+      <c r="B51" s="16">
         <v>45</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="19">
+      <c r="B52" s="16">
         <v>46</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
+      <c r="B53" s="16">
         <v>47</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="19">
+      <c r="B54" s="16">
         <v>48</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="19">
+      <c r="B55" s="16">
         <v>49</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="19">
+      <c r="B56" s="16">
         <v>50</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="19">
+      <c r="B57" s="16">
         <v>51</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="19">
+      <c r="B58" s="16">
         <v>52</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
     </row>
     <row r="59" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="21">
+      <c r="B59" s="18">
         <v>53</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="20">
         <f>SUM(C7:C59)</f>
         <v>75</v>
       </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
     </row>
   </sheetData>
   <sortState ref="B21:C33">
     <sortCondition descending="1" ref="C21"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>

--- a/Template/Export/Sari_R2_7.xlsx
+++ b/Template/Export/Sari_R2_7.xlsx
@@ -39,10 +39,10 @@
     <t>NACIONAL</t>
   </si>
   <si>
-    <t>NÚMERO DE FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</t>
+    <t>Número de Fallecidos</t>
   </si>
   <si>
-    <t>Número de Fallecidos</t>
+    <t>NÚMERO DE CASOS DE IRAG FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</t>
   </si>
 </sst>
 </file>
@@ -333,14 +333,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>NÚMERO</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>NÚMERO DE CASOS DE IRAG FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> DE FALLECIDOS POR SEMANA EPIDEMIOLÓGICA</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -354,9 +349,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.1910947985692377E-2"/>
-          <c:y val="0.13921442201858764"/>
-          <c:w val="0.95125016950378327"/>
+          <c:x val="5.4873060500043695E-2"/>
+          <c:y val="0.12267182483082915"/>
+          <c:w val="0.92828805698943195"/>
           <c:h val="0.67364060881967902"/>
         </c:manualLayout>
       </c:layout>
@@ -366,7 +361,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$C$6</c:f>
@@ -379,6 +374,174 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$C$7:$C$59</c:f>
@@ -398,213 +561,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1289781200"/>
-        <c:axId val="1289773584"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Semana epidemiológica</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$7:$B$59</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>53</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="1667241520"/>
+        <c:axId val="1667233904"/>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1289781200"/>
+        <c:axId val="1667241520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +589,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.41212074093493761"/>
-              <c:y val="0.87588779690379892"/>
+              <c:y val="0.86626682139928479"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -642,10 +604,11 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1289773584"/>
+        <c:crossAx val="1667233904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,18 +616,49 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1289773584"/>
+        <c:axId val="1667233904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Número de fallecidos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.2785466971622804E-3"/>
+              <c:y val="0.29856261918430277"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1289781200"/>
+        <c:crossAx val="1667241520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -675,8 +669,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.4105226743327578"/>
-          <c:y val="0.93024677126277333"/>
+          <c:x val="0.41358428933467134"/>
+          <c:y val="0.92393443661771379"/>
           <c:w val="0.17436210829559048"/>
           <c:h val="5.982767042457162E-2"/>
         </c:manualLayout>
@@ -702,13 +696,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1019,9 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1051,7 +1043,7 @@
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1103,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>

--- a/Template/Export/Sari_R2_7.xlsx
+++ b/Template/Export/Sari_R2_7.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -349,10 +349,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4873060500043695E-2"/>
-          <c:y val="0.12267182483082915"/>
-          <c:w val="0.92828805698943195"/>
-          <c:h val="0.67364060881967902"/>
+          <c:x val="7.0181135509611248E-2"/>
+          <c:y val="0.11740746191772759"/>
+          <c:w val="0.91297998197986452"/>
+          <c:h val="0.65279833878259086"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -561,12 +561,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1667241520"/>
-        <c:axId val="1667233904"/>
+        <c:axId val="-1923467616"/>
+        <c:axId val="-1923469248"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1667241520"/>
+        <c:axId val="-1923467616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +589,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.41212074093493761"/>
-              <c:y val="0.86626682139928479"/>
+              <c:y val="0.83930842796984539"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -608,7 +608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1667233904"/>
+        <c:crossAx val="-1923469248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -616,7 +616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1667233904"/>
+        <c:axId val="-1923469248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,34 +633,29 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Número de fallecidos</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1000">
-                  <a:effectLst/>
-                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="4.2785466971622804E-3"/>
-              <c:y val="0.29856261918430277"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1667241520"/>
+        <c:crossAx val="-1923467616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -669,8 +664,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41358428933467134"/>
-          <c:y val="0.92393443661771379"/>
+          <c:x val="0.4105226743327578"/>
+          <c:y val="0.89023041652962909"/>
           <c:w val="0.17436210829559048"/>
           <c:h val="5.982767042457162E-2"/>
         </c:manualLayout>
@@ -696,13 +691,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Template/Export/Sari_R2_7.xlsx
+++ b/Template/Export/Sari_R2_7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15480" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -376,10 +376,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$7:$B$59</c:f>
+              <c:f>Hoja1!$B$7:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -535,22 +535,24 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$7:$C$59</c:f>
+              <c:f>Hoja1!$C$7:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-857D-4AD9-9BC3-280D802883DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1006,13 +1008,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
